--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AD/20/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AD/20/seed5/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-9.76</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.198</v>
+        <v>-7.857000000000001</v>
       </c>
       <c r="E3" t="n">
         <v>13.95</v>
@@ -505,7 +505,7 @@
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.082000000000001</v>
+        <v>-8.074999999999999</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.386</v>
+        <v>-7.935</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -573,7 +573,7 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.590000000000001</v>
+        <v>-8.108000000000001</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-22.3</v>
+        <v>-21.584</v>
       </c>
       <c r="B11" t="n">
         <v>6.01</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.3</v>
+        <v>-21.776</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
@@ -641,7 +641,7 @@
         <v>-15.79</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.481999999999999</v>
+        <v>-8.310999999999998</v>
       </c>
       <c r="E12" t="n">
         <v>13.01</v>
@@ -675,7 +675,7 @@
         <v>-11.89</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.284000000000001</v>
+        <v>-8.178999999999998</v>
       </c>
       <c r="E14" t="n">
         <v>12.97</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.302</v>
+        <v>-21.098</v>
       </c>
       <c r="B15" t="n">
         <v>5.53</v>
@@ -811,7 +811,7 @@
         <v>-10.65</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.198</v>
+        <v>-7.812</v>
       </c>
       <c r="E22" t="n">
         <v>12.2</v>
